--- a/Marksheets/Ashmita G.C..xlsx
+++ b/Marksheets/Ashmita G.C..xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22430"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="65426" yWindow="65426" windowWidth="19420" windowHeight="10420" tabRatio="601" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="65430" yWindow="65430" windowWidth="19425" windowHeight="10425" tabRatio="601" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Grading Sheet" sheetId="1" state="hidden" r:id="rId1"/>
@@ -12,7 +12,7 @@
     <sheet name="Sheet2" sheetId="3" state="hidden" r:id="rId3"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="124519"/>
   <extLst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -279,9 +279,6 @@
     <t>Overall Comment:</t>
   </si>
   <si>
-    <t>Code should be self explainable with less comments. Need some proper naming of the component and require to add comments on required area.</t>
-  </si>
-  <si>
     <t>Code is clear and precise with proper comments and proper conventions used</t>
   </si>
   <si>
@@ -292,10 +289,6 @@
   </si>
   <si>
     <t>very poorly written code and no comments at all</t>
-  </si>
-  <si>
-    <t xml:space="preserve">In overall the code is working and all the functionality seems working and system can be used 
-</t>
   </si>
   <si>
     <t>Very poor code</t>
@@ -324,11 +317,24 @@
   <si>
     <t>Ashmita G.C.</t>
   </si>
+  <si>
+    <t xml:space="preserve">Code should be self explainable with less comments. Need some proper naming of the component and require to add comments on required area. Could not explain the code. System is not usable. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Initiated and trying to make the application workable.
+</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+  </numFmts>
   <fonts count="27">
     <font>
       <sz val="11"/>
@@ -1145,9 +1151,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="16" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1215,6 +1218,9 @@
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -1635,7 +1641,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
     <sheetView workbookViewId="0" topLeftCell="A1">
@@ -1645,7 +1651,7 @@
       <selection pane="bottomRight" activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.58203125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="7.75390625" customWidth="1"/>
     <col min="2" max="2" width="39.75390625" customWidth="1"/>
@@ -1819,7 +1825,7 @@
         <v>10</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D6" s="10"/>
       <c r="E6" s="1"/>
@@ -2156,11 +2162,11 @@
       </c>
       <c r="E13" s="31" t="str">
         <f>G13</f>
-        <v>Excellent report presentation in tabular format with proper chart for enrollment and weekly report for selected week </v>
+        <v>Excellent report presentation in tabular format with proper chart for enrollment and weekly report for selected week</v>
       </c>
       <c r="F13" s="31" t="str">
         <f>G13</f>
-        <v>Excellent report presentation in tabular format with proper chart for enrollment and weekly report for selected week </v>
+        <v>Excellent report presentation in tabular format with proper chart for enrollment and weekly report for selected week</v>
       </c>
       <c r="G13" s="31" t="s">
         <v>42</v>
@@ -2383,7 +2389,7 @@
       </c>
       <c r="H18" s="44" t="str">
         <f>I18</f>
-        <v>User Manual is good. Contains all varieties of forms. </v>
+        <v>User Manual is good. Contains all varieties of forms.</v>
       </c>
       <c r="I18" s="44" t="s">
         <v>61</v>
@@ -2397,14 +2403,14 @@
       </c>
       <c r="L18" s="44" t="str">
         <f>M18</f>
-        <v>User Manual is below average. Is textual only. </v>
+        <v>User Manual is below average. Is textual only.</v>
       </c>
       <c r="M18" s="44" t="s">
         <v>63</v>
       </c>
       <c r="N18" s="44" t="str">
         <f>M18</f>
-        <v>User Manual is below average. Is textual only. </v>
+        <v>User Manual is below average. Is textual only.</v>
       </c>
       <c r="O18" s="45" t="s">
         <v>29</v>
@@ -2607,23 +2613,23 @@
       <c r="E23" s="62"/>
       <c r="F23" s="62"/>
       <c r="G23" s="63" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H23" s="62"/>
       <c r="I23" s="63" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J23" s="62"/>
       <c r="K23" s="63" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="L23" s="62"/>
       <c r="M23" s="63" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="N23" s="62"/>
       <c r="O23" s="64" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="P23" s="65"/>
       <c r="Q23" s="65"/>
@@ -2642,7 +2648,7 @@
         <v>2</v>
       </c>
       <c r="B24" s="67" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C24" s="68">
         <v>5</v>
@@ -2653,23 +2659,23 @@
       <c r="E24" s="70"/>
       <c r="F24" s="70"/>
       <c r="G24" s="71" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="H24" s="70"/>
       <c r="I24" s="71" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="J24" s="70"/>
       <c r="K24" s="71" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="L24" s="70"/>
       <c r="M24" s="71" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="N24" s="70"/>
       <c r="O24" s="72" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="P24" s="65"/>
       <c r="Q24" s="65"/>
@@ -2686,10 +2692,10 @@
     <row r="25" spans="1:26" ht="14.25" customHeight="1">
       <c r="A25" s="73"/>
       <c r="B25" s="74" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C25" s="74">
-        <f t="shared" si="6" ref="C25:D25">SUM(C10:C24)</f>
+        <f t="shared" si="6" ref="C25">SUM(C10:C24)</f>
         <v>100</v>
       </c>
       <c r="D25" s="74">
@@ -30029,25 +30035,25 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:Z1005"/>
   <sheetViews>
-    <sheetView workbookViewId="0" topLeftCell="A1">
-      <selection activeCell="H3" sqref="H3"/>
+    <sheetView tabSelected="1" workbookViewId="0" topLeftCell="A53">
+      <selection activeCell="A59" sqref="A59"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.58203125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="24.25390625" customWidth="1"/>
     <col min="2" max="2" width="19.125" customWidth="1"/>
-    <col min="3" max="3" width="2.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="3.50390625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="26.625" customWidth="1"/>
     <col min="5" max="5" width="12.625" bestFit="1" customWidth="1"/>
     <col min="6" max="26" width="7.75390625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="33" customHeight="1">
-      <c r="A1" s="101" t="s">
+      <c r="A1" s="100" t="s">
         <v>1</v>
       </c>
       <c r="B1" s="79"/>
@@ -30077,7 +30083,7 @@
       <c r="Z1" s="3"/>
     </row>
     <row r="2" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A2" s="102"/>
+      <c r="A2" s="101"/>
       <c r="B2" s="79"/>
       <c r="C2" s="79"/>
       <c r="D2" s="79"/>
@@ -30133,7 +30139,7 @@
       <c r="Z3" s="3"/>
     </row>
     <row r="4" spans="1:26" ht="18">
-      <c r="A4" s="103" t="str">
+      <c r="A4" s="102" t="str">
         <f>'Grading Sheet'!B4</f>
         <v>Application Development</v>
       </c>
@@ -30164,7 +30170,7 @@
       <c r="Z4" s="3"/>
     </row>
     <row r="5" spans="1:26" ht="21.75" customHeight="1">
-      <c r="A5" s="103" t="str">
+      <c r="A5" s="102" t="str">
         <f>'Grading Sheet'!B3</f>
         <v>CS6004NI</v>
       </c>
@@ -30195,7 +30201,7 @@
       <c r="Z5" s="3"/>
     </row>
     <row r="6" spans="1:26" ht="27" customHeight="1">
-      <c r="A6" s="98" t="s">
+      <c r="A6" s="97" t="s">
         <v>11</v>
       </c>
       <c r="B6" s="79"/>
@@ -30656,7 +30662,7 @@
     <row r="22" spans="1:26" ht="14.25" customHeight="1">
       <c r="A22" s="76" t="str">
         <f>"London Met ID: "</f>
-        <v>London Met ID: </v>
+        <v>London Met ID:</v>
       </c>
       <c r="B22" s="25" t="str">
         <f>'Grading Sheet'!C7</f>
@@ -31038,7 +31044,7 @@
       <c r="Y35" s="3"/>
       <c r="Z35" s="3"/>
     </row>
-    <row r="36" spans="6:26" ht="14.5">
+    <row r="36" spans="6:26" ht="15">
       <c r="F36" s="3"/>
       <c r="G36" s="3"/>
       <c r="H36" s="3"/>
@@ -31062,13 +31068,13 @@
       <c r="Z36" s="3"/>
     </row>
     <row r="37" spans="1:26" ht="53.25" customHeight="1">
-      <c r="A37" s="104" t="s">
+      <c r="A37" s="103" t="s">
         <v>24</v>
       </c>
-      <c r="B37" s="105"/>
-      <c r="C37" s="105"/>
-      <c r="D37" s="105"/>
-      <c r="E37" s="106"/>
+      <c r="B37" s="104"/>
+      <c r="C37" s="104"/>
+      <c r="D37" s="104"/>
+      <c r="E37" s="105"/>
       <c r="F37" s="3"/>
       <c r="G37" s="3"/>
       <c r="H37" s="3"/>
@@ -31092,14 +31098,14 @@
       <c r="Z37" s="3"/>
     </row>
     <row r="38" spans="1:26" ht="30.75" customHeight="1">
-      <c r="A38" s="88" t="str">
+      <c r="A38" s="87" t="str">
         <f>CONCATENATE('Grading Sheet'!A9,". ",'Grading Sheet'!B9)</f>
         <v>A. Implementation of Application</v>
       </c>
-      <c r="B38" s="94"/>
-      <c r="C38" s="94"/>
-      <c r="D38" s="94"/>
-      <c r="E38" s="95"/>
+      <c r="B38" s="93"/>
+      <c r="C38" s="93"/>
+      <c r="D38" s="93"/>
+      <c r="E38" s="94"/>
       <c r="F38" s="3"/>
       <c r="G38" s="3"/>
       <c r="H38" s="3"/>
@@ -31123,17 +31129,17 @@
       <c r="Z38" s="3"/>
     </row>
     <row r="39" spans="1:26" ht="90" customHeight="1">
-      <c r="A39" s="83" t="str">
+      <c r="A39" s="82" t="str">
         <f>'Grading Sheet'!B10</f>
         <v>User Interface and proper controls used for designing</v>
       </c>
-      <c r="B39" s="99"/>
-      <c r="C39" s="100"/>
-      <c r="D39" s="96" t="str">
+      <c r="B39" s="98"/>
+      <c r="C39" s="99"/>
+      <c r="D39" s="95" t="str">
         <f>IF('Grading Sheet'!D10&gt;'Grading Sheet'!C10*'Grading Sheet'!$G$8,'Grading Sheet'!G10,IF('Grading Sheet'!D10&gt;'Grading Sheet'!C10*'Grading Sheet'!$I$8,'Grading Sheet'!I10,IF('Grading Sheet'!D10&gt;'Grading Sheet'!$K$8*'Grading Sheet'!C10,'Grading Sheet'!K10,IF('Grading Sheet'!D10&gt;'Grading Sheet'!$M$8*'Grading Sheet'!C10,'Grading Sheet'!M10,'Grading Sheet'!O10))))</f>
         <v>missing controls in the interface</v>
       </c>
-      <c r="E39" s="97"/>
+      <c r="E39" s="96"/>
       <c r="F39" s="3"/>
       <c r="G39" s="3"/>
       <c r="H39" s="3"/>
@@ -31157,17 +31163,17 @@
       <c r="Z39" s="3"/>
     </row>
     <row r="40" spans="1:26" ht="90" customHeight="1">
-      <c r="A40" s="83" t="str">
+      <c r="A40" s="82" t="str">
         <f>'Grading Sheet'!B11</f>
         <v>Manual data entry or import from csv</v>
       </c>
-      <c r="B40" s="81"/>
-      <c r="C40" s="82"/>
-      <c r="D40" s="93" t="str">
+      <c r="B40" s="80"/>
+      <c r="C40" s="81"/>
+      <c r="D40" s="92" t="str">
         <f>IF('Grading Sheet'!D11&gt;'Grading Sheet'!C11*'Grading Sheet'!$G$8,'Grading Sheet'!G11,IF('Grading Sheet'!D11&gt;'Grading Sheet'!C11*'Grading Sheet'!$I$8,'Grading Sheet'!I11,IF('Grading Sheet'!D11&gt;'Grading Sheet'!$K$8*'Grading Sheet'!C11,'Grading Sheet'!K11,IF('Grading Sheet'!D11&gt;'Grading Sheet'!$M$8*'Grading Sheet'!C11,'Grading Sheet'!M11,'Grading Sheet'!O11))))</f>
         <v>data types not taken care of and not properly executed functionally.</v>
       </c>
-      <c r="E40" s="85"/>
+      <c r="E40" s="84"/>
       <c r="F40" s="3"/>
       <c r="G40" s="3"/>
       <c r="H40" s="3"/>
@@ -31191,17 +31197,17 @@
       <c r="Z40" s="3"/>
     </row>
     <row r="41" spans="1:26" ht="90" customHeight="1">
-      <c r="A41" s="83" t="str">
+      <c r="A41" s="82" t="str">
         <f>'Grading Sheet'!B12</f>
         <v>Data Validation</v>
       </c>
-      <c r="B41" s="81"/>
-      <c r="C41" s="82"/>
-      <c r="D41" s="93" t="str">
+      <c r="B41" s="80"/>
+      <c r="C41" s="81"/>
+      <c r="D41" s="92" t="str">
         <f>IF('Grading Sheet'!D12&gt;'Grading Sheet'!C12*'Grading Sheet'!$G$8,'Grading Sheet'!G12,IF('Grading Sheet'!D12&gt;'Grading Sheet'!C12*'Grading Sheet'!$I$8,'Grading Sheet'!I12,IF('Grading Sheet'!D12&gt;'Grading Sheet'!$K$8*'Grading Sheet'!C12,'Grading Sheet'!K12,IF('Grading Sheet'!D12&gt;'Grading Sheet'!$M$8*'Grading Sheet'!C12,'Grading Sheet'!M12,'Grading Sheet'!O12))))</f>
         <v>Only basic validation</v>
       </c>
-      <c r="E41" s="85"/>
+      <c r="E41" s="84"/>
       <c r="F41" s="3"/>
       <c r="G41" s="3"/>
       <c r="H41" s="3"/>
@@ -31225,17 +31231,17 @@
       <c r="Z41" s="3"/>
     </row>
     <row r="42" spans="1:26" ht="33" customHeight="1">
-      <c r="A42" s="83" t="str">
+      <c r="A42" s="82" t="str">
         <f>'Grading Sheet'!B13</f>
         <v>Enrollment Report &amp; weekly report in tabular format</v>
       </c>
-      <c r="B42" s="81"/>
-      <c r="C42" s="82"/>
-      <c r="D42" s="93" t="str">
+      <c r="B42" s="80"/>
+      <c r="C42" s="81"/>
+      <c r="D42" s="92" t="str">
         <f>IF('Grading Sheet'!D13&gt;'Grading Sheet'!C13*'Grading Sheet'!$G$8,'Grading Sheet'!G13,IF('Grading Sheet'!D13&gt;'Grading Sheet'!C13*'Grading Sheet'!$I$8,'Grading Sheet'!I13,IF('Grading Sheet'!D13&gt;'Grading Sheet'!$K$8*'Grading Sheet'!C13,'Grading Sheet'!K13,IF('Grading Sheet'!D13&gt;'Grading Sheet'!$M$8*'Grading Sheet'!C13,'Grading Sheet'!M13,'Grading Sheet'!O13))))</f>
         <v>very poorly executed reports and data not shown accurately</v>
       </c>
-      <c r="E42" s="85"/>
+      <c r="E42" s="84"/>
       <c r="F42" s="3"/>
       <c r="G42" s="3"/>
       <c r="H42" s="3"/>
@@ -31259,17 +31265,17 @@
       <c r="Z42" s="3"/>
     </row>
     <row r="43" spans="1:26" ht="90" customHeight="1">
-      <c r="A43" s="83" t="str">
+      <c r="A43" s="82" t="str">
         <f>'Grading Sheet'!B14</f>
         <v>Course wise enrollment report &amp; Chart display</v>
       </c>
-      <c r="B43" s="81"/>
-      <c r="C43" s="82"/>
-      <c r="D43" s="93" t="str">
+      <c r="B43" s="80"/>
+      <c r="C43" s="81"/>
+      <c r="D43" s="92" t="str">
         <f>IF('Grading Sheet'!D14&gt;'Grading Sheet'!C14*'Grading Sheet'!$G$8,'Grading Sheet'!G14,IF('Grading Sheet'!D14&gt;'Grading Sheet'!C14*'Grading Sheet'!$I$8,'Grading Sheet'!I14,IF('Grading Sheet'!D14&gt;'Grading Sheet'!$K$8*'Grading Sheet'!C14,'Grading Sheet'!K14,IF('Grading Sheet'!D14&gt;'Grading Sheet'!$M$8*'Grading Sheet'!C14,'Grading Sheet'!M14,'Grading Sheet'!O14))))</f>
         <v>Very poorly designed and only contains one report format with in appropriate data</v>
       </c>
-      <c r="E43" s="85"/>
+      <c r="E43" s="84"/>
       <c r="F43" s="3"/>
       <c r="G43" s="3"/>
       <c r="H43" s="3"/>
@@ -31293,17 +31299,17 @@
       <c r="Z43" s="3"/>
     </row>
     <row r="44" spans="1:26" ht="90" customHeight="1">
-      <c r="A44" s="83" t="str">
+      <c r="A44" s="82" t="str">
         <f>'Grading Sheet'!B15</f>
         <v>Algorithm used for sorting &amp; proper sorting of data</v>
       </c>
-      <c r="B44" s="81"/>
-      <c r="C44" s="82"/>
-      <c r="D44" s="93" t="str">
+      <c r="B44" s="80"/>
+      <c r="C44" s="81"/>
+      <c r="D44" s="92" t="str">
         <f>IF('Grading Sheet'!D15&gt;'Grading Sheet'!C15*'Grading Sheet'!$G$8,'Grading Sheet'!G15,IF('Grading Sheet'!D15&gt;'Grading Sheet'!C15*'Grading Sheet'!$I$8,'Grading Sheet'!I15,IF('Grading Sheet'!D15&gt;'Grading Sheet'!$K$8*'Grading Sheet'!C15,'Grading Sheet'!K15,IF('Grading Sheet'!D15&gt;'Grading Sheet'!$M$8*'Grading Sheet'!C15,'Grading Sheet'!M15,'Grading Sheet'!O15))))</f>
         <v>Default sorting provided by .net is used</v>
       </c>
-      <c r="E44" s="85"/>
+      <c r="E44" s="84"/>
       <c r="F44" s="3"/>
       <c r="G44" s="3"/>
       <c r="H44" s="3"/>
@@ -31327,14 +31333,14 @@
       <c r="Z44" s="3"/>
     </row>
     <row r="45" spans="1:26" ht="33" customHeight="1">
-      <c r="A45" s="88" t="str">
+      <c r="A45" s="87" t="str">
         <f>CONCATENATE('Grading Sheet'!A17,". ",'Grading Sheet'!B17)</f>
         <v>B. Documentation</v>
       </c>
-      <c r="B45" s="81"/>
-      <c r="C45" s="81"/>
-      <c r="D45" s="81"/>
-      <c r="E45" s="81"/>
+      <c r="B45" s="80"/>
+      <c r="C45" s="80"/>
+      <c r="D45" s="80"/>
+      <c r="E45" s="80"/>
       <c r="F45" s="3"/>
       <c r="G45" s="3"/>
       <c r="H45" s="3"/>
@@ -31358,17 +31364,17 @@
       <c r="Z45" s="3"/>
     </row>
     <row r="46" spans="1:26" ht="90" customHeight="1">
-      <c r="A46" s="83" t="str">
+      <c r="A46" s="82" t="str">
         <f>'Grading Sheet'!B18</f>
         <v>User Manual for running the application</v>
       </c>
-      <c r="B46" s="81"/>
-      <c r="C46" s="82"/>
-      <c r="D46" s="93" t="str">
+      <c r="B46" s="80"/>
+      <c r="C46" s="81"/>
+      <c r="D46" s="92" t="str">
         <f>IF('Grading Sheet'!D18&gt;'Grading Sheet'!C18*'Grading Sheet'!$G$8,'Grading Sheet'!G18,IF('Grading Sheet'!D18&gt;'Grading Sheet'!C18*'Grading Sheet'!$I$8,'Grading Sheet'!I18,IF('Grading Sheet'!D18&gt;'Grading Sheet'!$K$8*'Grading Sheet'!C18,'Grading Sheet'!K18,IF('Grading Sheet'!D18&gt;'Grading Sheet'!$M$8*'Grading Sheet'!C18,'Grading Sheet'!M18,'Grading Sheet'!O18))))</f>
-        <v>User Manual is below average. Is textual only. </v>
+        <v>User Manual is below average. Is textual only.</v>
       </c>
-      <c r="E46" s="85"/>
+      <c r="E46" s="84"/>
       <c r="F46" s="3"/>
       <c r="G46" s="3"/>
       <c r="H46" s="3"/>
@@ -31392,17 +31398,17 @@
       <c r="Z46" s="3"/>
     </row>
     <row r="47" spans="1:26" ht="90" customHeight="1">
-      <c r="A47" s="83" t="str">
+      <c r="A47" s="82" t="str">
         <f>'Grading Sheet'!B19</f>
         <v>Application architecture &amp; description of the classes ad methods sued</v>
       </c>
-      <c r="B47" s="81"/>
-      <c r="C47" s="82"/>
-      <c r="D47" s="93" t="str">
+      <c r="B47" s="80"/>
+      <c r="C47" s="81"/>
+      <c r="D47" s="92" t="str">
         <f>IF('Grading Sheet'!D19&gt;'Grading Sheet'!C19*'Grading Sheet'!$G$8,'Grading Sheet'!G19,IF('Grading Sheet'!D19&gt;'Grading Sheet'!C19*'Grading Sheet'!$I$8,'Grading Sheet'!I19,IF('Grading Sheet'!D19&gt;'Grading Sheet'!$K$8*'Grading Sheet'!C19,'Grading Sheet'!K19,IF('Grading Sheet'!D19&gt;'Grading Sheet'!$M$8*'Grading Sheet'!C19,'Grading Sheet'!M19,'Grading Sheet'!O19))))</f>
         <v>very poorly explained.</v>
       </c>
-      <c r="E47" s="85"/>
+      <c r="E47" s="84"/>
       <c r="F47" s="3"/>
       <c r="G47" s="3"/>
       <c r="H47" s="3"/>
@@ -31426,17 +31432,17 @@
       <c r="Z47" s="3"/>
     </row>
     <row r="48" spans="1:26" ht="90" customHeight="1">
-      <c r="A48" s="83" t="str">
+      <c r="A48" s="82" t="str">
         <f>'Grading Sheet'!B20</f>
         <v>Flow chart, algoriathms and data sctructures used</v>
       </c>
-      <c r="B48" s="81"/>
-      <c r="C48" s="82"/>
-      <c r="D48" s="93" t="str">
+      <c r="B48" s="80"/>
+      <c r="C48" s="81"/>
+      <c r="D48" s="92" t="str">
         <f>IF('Grading Sheet'!D20&gt;'Grading Sheet'!C20*'Grading Sheet'!$G$8,'Grading Sheet'!G20,IF('Grading Sheet'!D20&gt;'Grading Sheet'!C20*'Grading Sheet'!$I$8,'Grading Sheet'!I20,IF('Grading Sheet'!D20&gt;'Grading Sheet'!$K$8*'Grading Sheet'!C20,'Grading Sheet'!K20,IF('Grading Sheet'!D20&gt;'Grading Sheet'!$M$8*'Grading Sheet'!C20,'Grading Sheet'!M20,'Grading Sheet'!O20))))</f>
         <v>very poorly explained and no diagramatic representation</v>
       </c>
-      <c r="E48" s="85"/>
+      <c r="E48" s="84"/>
       <c r="F48" s="3"/>
       <c r="G48" s="3"/>
       <c r="H48" s="3"/>
@@ -31460,17 +31466,17 @@
       <c r="Z48" s="3"/>
     </row>
     <row r="49" spans="1:26" ht="90" customHeight="1">
-      <c r="A49" s="83" t="str">
+      <c r="A49" s="82" t="str">
         <f>'Grading Sheet'!B21</f>
         <v>Reflective essay</v>
       </c>
-      <c r="B49" s="81"/>
-      <c r="C49" s="82"/>
-      <c r="D49" s="93" t="str">
+      <c r="B49" s="80"/>
+      <c r="C49" s="81"/>
+      <c r="D49" s="92" t="str">
         <f>IF('Grading Sheet'!D21&gt;'Grading Sheet'!C21*'Grading Sheet'!$G$8,'Grading Sheet'!G21,IF('Grading Sheet'!D21&gt;'Grading Sheet'!C21*'Grading Sheet'!$I$8,'Grading Sheet'!I21,IF('Grading Sheet'!D21&gt;'Grading Sheet'!$K$8*'Grading Sheet'!C21,'Grading Sheet'!K21,IF('Grading Sheet'!D21&gt;'Grading Sheet'!$M$8*'Grading Sheet'!C21,'Grading Sheet'!M21,'Grading Sheet'!O21))))</f>
-        <v>Very poorly written </v>
+        <v>Very poorly written</v>
       </c>
-      <c r="E49" s="85"/>
+      <c r="E49" s="84"/>
       <c r="F49" s="3"/>
       <c r="G49" s="3"/>
       <c r="H49" s="3"/>
@@ -31494,14 +31500,14 @@
       <c r="Z49" s="3"/>
     </row>
     <row r="50" spans="1:26" ht="15" customHeight="1">
-      <c r="A50" s="88" t="str">
+      <c r="A50" s="87" t="str">
         <f>CONCATENATE('Grading Sheet'!A22,". ",'Grading Sheet'!B22)</f>
         <v>C. Programming Style</v>
       </c>
-      <c r="B50" s="81"/>
-      <c r="C50" s="81"/>
-      <c r="D50" s="81"/>
-      <c r="E50" s="81"/>
+      <c r="B50" s="80"/>
+      <c r="C50" s="80"/>
+      <c r="D50" s="80"/>
+      <c r="E50" s="80"/>
       <c r="F50" s="3"/>
       <c r="G50" s="3"/>
       <c r="H50" s="3"/>
@@ -31525,17 +31531,17 @@
       <c r="Z50" s="3"/>
     </row>
     <row r="51" spans="1:26" ht="69.75" customHeight="1">
-      <c r="A51" s="83" t="str">
+      <c r="A51" s="82" t="str">
         <f>'Grading Sheet'!B23</f>
         <v>Clarity of code,Popper Naming convention &amp; comments</v>
       </c>
-      <c r="B51" s="81"/>
-      <c r="C51" s="82"/>
-      <c r="D51" s="84" t="str">
+      <c r="B51" s="80"/>
+      <c r="C51" s="81"/>
+      <c r="D51" s="83" t="str">
         <f>IF('Grading Sheet'!D23&gt;'Grading Sheet'!C23*'Grading Sheet'!$G$8,'Grading Sheet'!G23,IF('Grading Sheet'!D23&gt;'Grading Sheet'!C23*'Grading Sheet'!$I$8,'Grading Sheet'!I23,IF('Grading Sheet'!D23&gt;'Grading Sheet'!$K$8*'Grading Sheet'!C23,'Grading Sheet'!K23,IF('Grading Sheet'!D23&gt;'Grading Sheet'!$M$8*'Grading Sheet'!C23,'Grading Sheet'!M23,'Grading Sheet'!O23))))</f>
         <v>Very poor code</v>
       </c>
-      <c r="E51" s="85"/>
+      <c r="E51" s="84"/>
       <c r="F51" s="3"/>
       <c r="G51" s="3"/>
       <c r="H51" s="3"/>
@@ -31559,17 +31565,17 @@
       <c r="Z51" s="3"/>
     </row>
     <row r="52" spans="1:26" ht="81.75" customHeight="1">
-      <c r="A52" s="83" t="str">
+      <c r="A52" s="82" t="str">
         <f>'Grading Sheet'!B24</f>
         <v>System Usability</v>
       </c>
-      <c r="B52" s="81"/>
-      <c r="C52" s="82"/>
-      <c r="D52" s="84" t="str">
+      <c r="B52" s="80"/>
+      <c r="C52" s="81"/>
+      <c r="D52" s="83" t="str">
         <f>IF('Grading Sheet'!D24&gt;'Grading Sheet'!C24*'Grading Sheet'!$G$8,'Grading Sheet'!G24,IF('Grading Sheet'!D24&gt;'Grading Sheet'!C24*'Grading Sheet'!$I$8,'Grading Sheet'!I24,IF('Grading Sheet'!D24&gt;'Grading Sheet'!$K$8*'Grading Sheet'!C24,'Grading Sheet'!K24,IF('Grading Sheet'!D24&gt;'Grading Sheet'!$M$8*'Grading Sheet'!C24,'Grading Sheet'!M24,'Grading Sheet'!O24))))</f>
         <v>unusable system</v>
       </c>
-      <c r="E52" s="85"/>
+      <c r="E52" s="84"/>
       <c r="F52" s="3"/>
       <c r="G52" s="3"/>
       <c r="H52" s="3"/>
@@ -31593,10 +31599,10 @@
       <c r="Z52" s="3"/>
     </row>
     <row r="53" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A53" s="86"/>
+      <c r="A53" s="85"/>
       <c r="B53" s="79"/>
       <c r="C53" s="79"/>
-      <c r="D53" s="86"/>
+      <c r="D53" s="85"/>
       <c r="E53" s="79"/>
       <c r="F53" s="3"/>
       <c r="G53" s="3"/>
@@ -31621,19 +31627,19 @@
       <c r="Z53" s="3"/>
     </row>
     <row r="54" spans="1:26" ht="43.5" customHeight="1">
-      <c r="A54" s="87" t="s">
+      <c r="A54" s="86" t="s">
         <v>75</v>
       </c>
-      <c r="B54" s="82"/>
+      <c r="B54" s="81"/>
       <c r="C54" s="56" t="str">
-        <f>IF('Grading Sheet'!D25&gt;90,"A+",IF('Grading Sheet'!D25&gt;85,"A",IF('Grading Sheet'!D25&gt;80,"B+",IF('Grading Sheet'!D25&gt;75,"B",IF('Grading Sheet'!D25&gt;70,"C+",IF('Grading Sheet'!D25&gt;65,"C",IF('Grading Sheet'!D25&gt;60,"D+",IF('Grading Sheet'!D25&gt;55,"D",IF('Grading Sheet'!D25&gt;50,"E+",IF('Grading Sheet'!D25&gt;45,"F+","F"))))))))))</f>
-        <v>F</v>
+        <f>IF('Grading Sheet'!D25&gt;95,"A+",IF('Grading Sheet'!D25&gt;85,"A",IF('Grading Sheet'!D25&gt;75,"A-",IF('Grading Sheet'!D25&gt;67,"B+",IF('Grading Sheet'!D25&gt;63,"B",IF('Grading Sheet'!D25&gt;57,"C+",IF('Grading Sheet'!D25&gt;53,"C",IF('Grading Sheet'!D25&gt;47,"D+",IF('Grading Sheet'!D25&gt;43,"D",IF('Grading Sheet'!D25&gt;37,"F1","F2"))))))))))</f>
+        <v>F1</v>
       </c>
-      <c r="D54" s="89" t="str">
-        <f>IF('Grading Sheet'!D25&gt;90,"A+",IF('Grading Sheet'!D25&gt;85,"A",IF('Grading Sheet'!D25&gt;80,"B+",IF('Grading Sheet'!D25&gt;75,"B",IF('Grading Sheet'!D25&gt;70,"C+",IF('Grading Sheet'!D25&gt;65,"C",IF('Grading Sheet'!D25&gt;60,"D+",IF('Grading Sheet'!D25&gt;55,"D",IF('Grading Sheet'!D25&gt;50,"E+",IF('Grading Sheet'!D25&gt;45,"F+","F"))))))))))</f>
-        <v>F</v>
+      <c r="D54" s="88" t="str">
+        <f>IF('Grading Sheet'!D25&gt;95,"A+",IF('Grading Sheet'!D25&gt;85,"A",IF('Grading Sheet'!D25&gt;75,"A-",IF('Grading Sheet'!D25&gt;67,"B+",IF('Grading Sheet'!D25&gt;63,"B",IF('Grading Sheet'!D25&gt;57,"C+",IF('Grading Sheet'!D25&gt;53,"C",IF('Grading Sheet'!D25&gt;47,"D+",IF('Grading Sheet'!D25&gt;43,"D",IF('Grading Sheet'!D25&gt;37,"F1","F2"))))))))))</f>
+        <v>F1</v>
       </c>
-      <c r="E54" s="82"/>
+      <c r="E54" s="81"/>
       <c r="F54" s="3"/>
       <c r="G54" s="3"/>
       <c r="H54" s="3"/>
@@ -31657,7 +31663,7 @@
       <c r="Z54" s="3"/>
     </row>
     <row r="55" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A55" s="86"/>
+      <c r="A55" s="85"/>
       <c r="B55" s="79"/>
       <c r="C55" s="79"/>
       <c r="D55" s="79"/>
@@ -31685,13 +31691,13 @@
       <c r="Z55" s="3"/>
     </row>
     <row r="56" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A56" s="90" t="s">
+      <c r="A56" s="89" t="s">
         <v>83</v>
       </c>
-      <c r="B56" s="91"/>
-      <c r="C56" s="91"/>
-      <c r="D56" s="91"/>
-      <c r="E56" s="91"/>
+      <c r="B56" s="90"/>
+      <c r="C56" s="90"/>
+      <c r="D56" s="90"/>
+      <c r="E56" s="90"/>
       <c r="F56" s="3"/>
       <c r="G56" s="3"/>
       <c r="H56" s="3"/>
@@ -31715,13 +31721,13 @@
       <c r="Z56" s="3"/>
     </row>
     <row r="57" spans="1:26" ht="112.5" customHeight="1">
-      <c r="A57" s="92" t="s">
-        <v>84</v>
+      <c r="A57" s="91" t="s">
+        <v>97</v>
       </c>
-      <c r="B57" s="81"/>
-      <c r="C57" s="81"/>
-      <c r="D57" s="81"/>
-      <c r="E57" s="82"/>
+      <c r="B57" s="80"/>
+      <c r="C57" s="80"/>
+      <c r="D57" s="80"/>
+      <c r="E57" s="81"/>
       <c r="F57" s="3"/>
       <c r="G57" s="3"/>
       <c r="H57" s="3"/>
@@ -31745,13 +31751,13 @@
       <c r="Z57" s="3"/>
     </row>
     <row r="58" spans="1:26" ht="96" customHeight="1">
-      <c r="A58" s="80" t="s">
-        <v>89</v>
+      <c r="A58" s="106" t="s">
+        <v>98</v>
       </c>
-      <c r="B58" s="81"/>
-      <c r="C58" s="81"/>
-      <c r="D58" s="81"/>
-      <c r="E58" s="82"/>
+      <c r="B58" s="80"/>
+      <c r="C58" s="80"/>
+      <c r="D58" s="80"/>
+      <c r="E58" s="81"/>
       <c r="F58" s="3"/>
       <c r="G58" s="3"/>
       <c r="H58" s="3"/>
@@ -58345,12 +58351,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:U15"/>
   <sheetViews>
     <sheetView workbookViewId="0" topLeftCell="A1"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.58203125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="7.75390625" customWidth="1"/>
     <col min="2" max="2" width="6.50390625" customWidth="1"/>
